--- a/DIGGSDictionaryTemplate.xlsx
+++ b/DIGGSDictionaryTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-schema/Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36FD6B9-B8F2-BD41-8D3F-DBEB47ECBFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EBC42C-DE29-A249-9899-6EDA6B62C195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="5960" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10100" yWindow="5940" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="239">
   <si>
     <t>Code</t>
   </si>
@@ -128,48 +128,9 @@
     <t>time</t>
   </si>
   <si>
-    <t>(amount of substance per time) per area</t>
-  </si>
-  <si>
-    <t>(energy per mass) per time</t>
-  </si>
-  <si>
-    <t>(mass per time) per area</t>
-  </si>
-  <si>
-    <t>(mass per time) per length</t>
-  </si>
-  <si>
-    <t>(mass per volume) per length</t>
-  </si>
-  <si>
-    <t>(volume per time) length</t>
-  </si>
-  <si>
-    <t>(volume per time) per (pressure length)</t>
-  </si>
-  <si>
-    <t>(volume per time) per area</t>
-  </si>
-  <si>
-    <t>(volume per time) per length</t>
-  </si>
-  <si>
-    <t>(volume per time) per pressure</t>
-  </si>
-  <si>
-    <t>(volume per time) per time</t>
-  </si>
-  <si>
-    <t>(volume per time) per volume</t>
-  </si>
-  <si>
     <t>absorbed dose</t>
   </si>
   <si>
-    <t>activity [of radioactivity]</t>
-  </si>
-  <si>
     <t>amount of substance</t>
   </si>
   <si>
@@ -467,9 +428,6 @@
     <t>pressure squared</t>
   </si>
   <si>
-    <t>pressure squared per (force time per area)</t>
-  </si>
-  <si>
     <t>pressure time per volume</t>
   </si>
   <si>
@@ -482,9 +440,6 @@
     <t>radiant intensity</t>
   </si>
   <si>
-    <t>reciprocal (mass time)</t>
-  </si>
-  <si>
     <t>reciprocal area</t>
   </si>
   <si>
@@ -681,12 +636,6 @@
   </si>
   <si>
     <t>token</t>
-  </si>
-  <si>
-    <t>reciprocal square root time</t>
-  </si>
-  <si>
-    <t>reciprocal time (per time)</t>
   </si>
   <si>
     <t>code_list</t>
@@ -708,33 +657,111 @@
     <t>example_code</t>
   </si>
   <si>
-    <t>Example name for property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property definition
+    <t>Xpath to element containing the code, eg. /diggs:Diggs/diggs:observation/diggs:LithologySystem/diggs:lithologyObservation/diggs:LithologyObservation/diggs:primaryLithology/diggs:Lithology/diggs:classificationCode</t>
+  </si>
+  <si>
+    <t>api gamma ray</t>
+  </si>
+  <si>
+    <t>api gravity</t>
+  </si>
+  <si>
+    <t>api neutron</t>
+  </si>
+  <si>
+    <t>pressure per pressure</t>
+  </si>
+  <si>
+    <t>activity of radioactivity</t>
+  </si>
+  <si>
+    <t>amount of substance per time per area</t>
+  </si>
+  <si>
+    <t>area per count</t>
+  </si>
+  <si>
+    <t>cation exchange capacity</t>
+  </si>
+  <si>
+    <t>diffusive time of flight</t>
+  </si>
+  <si>
+    <t>energy per mass per time</t>
+  </si>
+  <si>
+    <t>mass per time per area</t>
+  </si>
+  <si>
+    <t>mass per time per length</t>
+  </si>
+  <si>
+    <t>mass per volume per length</t>
+  </si>
+  <si>
+    <t>mass per volume per pressure</t>
+  </si>
+  <si>
+    <t>mass per volume per temperature</t>
+  </si>
+  <si>
+    <t>pressure squared per force time per area</t>
+  </si>
+  <si>
+    <t>reciprocal mass time</t>
+  </si>
+  <si>
+    <t>thermodynamic temperature per thermodynamic temperature</t>
+  </si>
+  <si>
+    <t>vertical coordinate</t>
+  </si>
+  <si>
+    <t>volume per time length</t>
+  </si>
+  <si>
+    <t>volume per time per area</t>
+  </si>
+  <si>
+    <t>volume per time per length</t>
+  </si>
+  <si>
+    <t>volume per time per pressure</t>
+  </si>
+  <si>
+    <t>volume per time per pressure length</t>
+  </si>
+  <si>
+    <t>volume per time per time</t>
+  </si>
+  <si>
+    <t>volume per time per volume</t>
+  </si>
+  <si>
+    <t>unitless</t>
+  </si>
+  <si>
+    <t>density or unit weight</t>
+  </si>
+  <si>
+    <t>reciprocal time squared</t>
+  </si>
+  <si>
+    <t>Example name for code</t>
+  </si>
+  <si>
+    <t>example_code, must meet NCNAME requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code definition
 </t>
-  </si>
-  <si>
-    <t>Xpath to element containing the code, eg. /diggs:Diggs/diggs:observation/diggs:LithologySystem/diggs:lithologyObservation/diggs:LithologyObservation/diggs:primaryLithology/diggs:Lithology/diggs:classificationCode</t>
-  </si>
-  <si>
-    <t>api gamma ray</t>
-  </si>
-  <si>
-    <t>api gravity</t>
-  </si>
-  <si>
-    <t>api neutron</t>
-  </si>
-  <si>
-    <t>pressure per pressure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -801,6 +828,18 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF003296"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -835,13 +874,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -854,6 +887,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -869,6 +904,77 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -923,77 +1029,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1039,8 +1074,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:D2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:D3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:D3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="17"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="16"/>
@@ -1052,49 +1087,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H2" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2">
     <sortCondition ref="D1:D2"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="9">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B2826,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Dictionary ID" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Code" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataTtype" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UOMType" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Dictionary ID" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Code" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataTtype" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UOMType" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:C2" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:C2" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$1827,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Code" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Element" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Code" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Element" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F153DBCC-DE2E-4E4D-A41E-FDE16771171D}" name="Table6" displayName="Table6" ref="A1:C179" totalsRowShown="0">
-  <autoFilter ref="A1:C179" xr:uid="{F153DBCC-DE2E-4E4D-A41E-FDE16771171D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C178">
-    <sortCondition ref="C1:C178"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F153DBCC-DE2E-4E4D-A41E-FDE16771171D}" name="Table6" displayName="Table6" ref="A1:C187" totalsRowShown="0">
+  <autoFilter ref="A1:C187" xr:uid="{F153DBCC-DE2E-4E4D-A41E-FDE16771171D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C187">
+    <sortCondition ref="C1:C187"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{176F4324-F73A-CF4A-B595-13209C384DA6}" name="Start"/>
@@ -1369,10 +1404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,29 +1418,35 @@
     <col min="4" max="4" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>219</v>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1423,20 +1464,20 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="19.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1452,11 +1493,11 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1466,30 +1507,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B2826,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>Not used</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>220</v>
+      <c r="H2" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1533,30 +1574,30 @@
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="184.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="184.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$1827,1,FALSE)),"Not listed","")</f>
-        <v/>
+        <v>Not listed</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>225</v>
+        <v>205</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1574,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED1C831-4B35-E645-92D4-6FA6FA429868}">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,1002 +1627,1228 @@
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>195</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>122</v>
+      </c>
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>123</v>
+      </c>
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>124</v>
+      </c>
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>126</v>
+      </c>
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>210</v>
+      </c>
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>222</v>
+      </c>
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>131</v>
+      </c>
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>132</v>
+      </c>
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>133</v>
+      </c>
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>134</v>
+      </c>
+      <c r="D137" s="9"/>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>137</v>
+      </c>
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>138</v>
+      </c>
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>223</v>
+      </c>
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>139</v>
+      </c>
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>140</v>
+      </c>
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>235</v>
+      </c>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>141</v>
+      </c>
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>142</v>
+      </c>
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>143</v>
+      </c>
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>145</v>
+      </c>
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>146</v>
+      </c>
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>147</v>
+      </c>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>148</v>
+      </c>
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
+        <v>149</v>
+      </c>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>150</v>
+      </c>
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>151</v>
+      </c>
+      <c r="D156" s="9"/>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>152</v>
+      </c>
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>153</v>
+      </c>
+      <c r="D158" s="9"/>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>154</v>
+      </c>
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>155</v>
+      </c>
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="9"/>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>224</v>
+      </c>
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>156</v>
+      </c>
+      <c r="D165" s="9"/>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>157</v>
+      </c>
+      <c r="D166" s="9"/>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>158</v>
+      </c>
+      <c r="D167" s="9"/>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>233</v>
+      </c>
+      <c r="D168" s="9"/>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>225</v>
+      </c>
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
+        <v>159</v>
+      </c>
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>160</v>
+      </c>
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>161</v>
+      </c>
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>162</v>
+      </c>
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>163</v>
+      </c>
+      <c r="D174" s="9"/>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>164</v>
+      </c>
+      <c r="D175" s="9"/>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>165</v>
+      </c>
+      <c r="D176" s="9"/>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
+        <v>166</v>
+      </c>
+      <c r="D177" s="9"/>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>226</v>
+      </c>
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>227</v>
+      </c>
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" t="s">
+      <c r="D180" s="9"/>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C132" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C133" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C137" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C139" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C141" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C144" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C148" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C149" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C150" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C151" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C152" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C154" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C156" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C157" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C158" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C159" t="s">
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>230</v>
+      </c>
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
+        <v>231</v>
+      </c>
+      <c r="D183" s="9"/>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
+        <v>232</v>
+      </c>
+      <c r="D184" s="9"/>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
+      <c r="D186" s="10"/>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C164" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C166" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C168" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C170" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C172" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C173" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C174" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C176" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C178" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C179" t="s">
-        <v>183</v>
-      </c>
+      <c r="D187" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F176">
